--- a/pytket/Excel_Results/tket_size.xlsx
+++ b/pytket/Excel_Results/tket_size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aditya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D17624B-95F3-044F-A1E9-E19329A527A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE988F-6E74-A049-9412-EB951CAC575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15580" xr2:uid="{28FFB06C-B138-644E-8F25-0F7CE8E50EAF}"/>
   </bookViews>
@@ -666,196 +666,196 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>234</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55983</c:v>
+                  <c:v>52086</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8266</c:v>
+                  <c:v>8060</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6627</c:v>
+                  <c:v>6340</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15013</c:v>
+                  <c:v>14192</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9675</c:v>
+                  <c:v>9233</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11718</c:v>
+                  <c:v>10995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1150</c:v>
+                  <c:v>1076</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>493</c:v>
+                  <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>144</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23829</c:v>
+                  <c:v>22391</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3521</c:v>
+                  <c:v>3364</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>509</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>245</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1056</c:v>
+                  <c:v>1021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>305</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>109</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>167</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10499</c:v>
+                  <c:v>9861</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>441</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3809</c:v>
+                  <c:v>3598</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>147</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>313</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>551</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>103</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>536</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>207952</c:v>
+                  <c:v>191911</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>194</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>172</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3383</c:v>
+                  <c:v>3221</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>748</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42271</c:v>
+                  <c:v>40383</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>171</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5278</c:v>
+                  <c:v>4978</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>91</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>314</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>80</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11384</c:v>
+                  <c:v>10672</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2099</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7261</c:v>
+                  <c:v>6931</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>368</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>75</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>594</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>142908</c:v>
+                  <c:v>134294</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>73</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>494</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>633</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>835</c:v>
+                  <c:v>796</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20721</c:v>
+                  <c:v>19751</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12494</c:v>
+                  <c:v>11943</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1910</c:v>
+                  <c:v>1832</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>255</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1910</c:v>
+                  <c:v>1832</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>38987</c:v>
+                  <c:v>36851</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>261</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>7</c:v>
@@ -864,19 +864,19 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>94</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>209</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>145</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>256</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>30343</c:v>
+                  <c:v>28527</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>53</c:v>
@@ -885,28 +885,28 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>164</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>199</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>396</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>27004</c:v>
+                  <c:v>25243</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>253</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>18973</c:v>
+                  <c:v>17654</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>179581</c:v>
+                  <c:v>169736</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>18</c:v>
@@ -921,103 +921,103 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>290</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>269</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>274</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>73</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>229722</c:v>
+                  <c:v>215020</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>852</c:v>
+                  <c:v>796</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>25589</c:v>
+                  <c:v>23964</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>72</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>653</c:v>
+                  <c:v>633</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1455</c:v>
+                  <c:v>1390</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>346</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>88262</c:v>
+                  <c:v>85053</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>320</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1292</c:v>
+                  <c:v>1253</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>166</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>214</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1385</c:v>
+                  <c:v>1311</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2198</c:v>
+                  <c:v>2071</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>259</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>22303</c:v>
+                  <c:v>20877</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>469630</c:v>
+                  <c:v>446615</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>435</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>320</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5884</c:v>
+                  <c:v>5576</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>380</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>38987</c:v>
+                  <c:v>36851</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>178</c:v>
@@ -1026,115 +1026,115 @@
                   <c:v>786</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>566158</c:v>
+                  <c:v>535486</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>40</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1335</c:v>
+                  <c:v>1225</c:v>
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>368</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>42080</c:v>
+                  <c:v>39786</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>126</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>71402</c:v>
+                  <c:v>67638</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>145152</c:v>
+                  <c:v>135114</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>95</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>399667</c:v>
+                  <c:v>396323</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>94</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>41</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>176</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>77664</c:v>
+                  <c:v>71617</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>561</c:v>
+                  <c:v>551</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>207028</c:v>
+                  <c:v>196468</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>551</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>37779</c:v>
+                  <c:v>35842</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3374</c:v>
+                  <c:v>3156</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>71</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>195</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>63348</c:v>
+                  <c:v>59079</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>687</c:v>
+                  <c:v>639</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>253</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>58</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>193252</c:v>
+                  <c:v>181544</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1095</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>20029</c:v>
+                  <c:v>18764</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>4211</c:v>
+                  <c:v>4034</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>627</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>285</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,475 +1689,475 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>266</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63064</c:v>
+                  <c:v>60008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9462</c:v>
+                  <c:v>9059</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7507</c:v>
+                  <c:v>7330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17477</c:v>
+                  <c:v>16657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11055</c:v>
+                  <c:v>10522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13272</c:v>
+                  <c:v>12576</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1253</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>524</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>153</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26289</c:v>
+                  <c:v>24519</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3921</c:v>
+                  <c:v>3668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>204</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>555</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>271</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1142</c:v>
+                  <c:v>1107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>347</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>124</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>173</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>131</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11879</c:v>
+                  <c:v>11311</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>471</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4479</c:v>
+                  <c:v>4123</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>163</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>339</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>612</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>105</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>552</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>231358</c:v>
+                  <c:v>213960</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>208</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>185</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3816</c:v>
+                  <c:v>3626</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>777</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>48438</c:v>
+                  <c:v>45735</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>178</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5960</c:v>
+                  <c:v>5746</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>99</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>356</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12796</c:v>
+                  <c:v>11975</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2404</c:v>
+                  <c:v>2150</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8097</c:v>
+                  <c:v>7641</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>395</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>76</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>663</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>163260</c:v>
+                  <c:v>155965</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>80</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>526</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>633</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>908</c:v>
+                  <c:v>833</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>24419</c:v>
+                  <c:v>22499</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>13962</c:v>
+                  <c:v>13557</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2137</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>275</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>45</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2137</c:v>
+                  <c:v>2041</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43758</c:v>
+                  <c:v>41557</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>286</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>100</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>228</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>163</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>271</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>34165</c:v>
+                  <c:v>32244</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>64</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>175</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>216</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>411</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>29800</c:v>
+                  <c:v>27751</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>274</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>21876</c:v>
+                  <c:v>20817</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>84</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>204899</c:v>
+                  <c:v>185417</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>21</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>62</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>42</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>316</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>294</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>46</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>300</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>46</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>87</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>258877</c:v>
+                  <c:v>240792</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>907</c:v>
+                  <c:v>834</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28672</c:v>
+                  <c:v>27605</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>84</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>709</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1586</c:v>
+                  <c:v>1472</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>387</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>99513</c:v>
+                  <c:v>90848</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>354</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>103</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1478</c:v>
+                  <c:v>1349</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>174</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>240</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>41</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1578</c:v>
+                  <c:v>1449</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>46</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2544</c:v>
+                  <c:v>2338</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>278</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>26379</c:v>
+                  <c:v>24665</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>528751</c:v>
+                  <c:v>484562</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>77</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>466</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>350</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>6478</c:v>
+                  <c:v>6208</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>407</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>43758</c:v>
+                  <c:v>41557</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>191</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>786</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>640398</c:v>
+                  <c:v>592817</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>44</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1466</c:v>
+                  <c:v>1406</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>28</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>410</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>48221</c:v>
+                  <c:v>45159</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>133</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>81396</c:v>
+                  <c:v>77855</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>162610</c:v>
+                  <c:v>149687</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>100</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>453352</c:v>
+                  <c:v>440870</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>99</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>45</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>187</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>29</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>85261</c:v>
+                  <c:v>81585</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>634</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>238860</c:v>
+                  <c:v>232275</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>63</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>566</c:v>
+                  <c:v>540</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>44235</c:v>
+                  <c:v>42936</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3780</c:v>
+                  <c:v>3573</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>78</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>229</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>46</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>70140</c:v>
+                  <c:v>69240</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>764</c:v>
+                  <c:v>706</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>282</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>64</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>221687</c:v>
+                  <c:v>200432</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1211</c:v>
+                  <c:v>1107</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>22291</c:v>
+                  <c:v>21223</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>4607</c:v>
+                  <c:v>4490</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>687</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>301</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,7 +2221,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2100"/>
                   <a:t>Gate Count In</a:t>
                 </a:r>
               </a:p>
@@ -2338,7 +2338,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2100"/>
                   <a:t>Gate Count Out</a:t>
                 </a:r>
               </a:p>
@@ -2424,6 +2424,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2437,7 +2445,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3394,14 +3402,16 @@
   <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -3442,10 +3452,10 @@
         <v>217</v>
       </c>
       <c r="C3" s="1">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D3" s="1">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3457,10 +3467,10 @@
         <v>215</v>
       </c>
       <c r="C4" s="1">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D4" s="1">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3472,10 +3482,10 @@
         <v>49829</v>
       </c>
       <c r="C5" s="1">
-        <v>55983</v>
+        <v>52086</v>
       </c>
       <c r="D5" s="1">
-        <v>63064</v>
+        <v>60008</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3487,10 +3497,10 @@
         <v>7630</v>
       </c>
       <c r="C6" s="1">
-        <v>8266</v>
+        <v>8060</v>
       </c>
       <c r="D6" s="1">
-        <v>9462</v>
+        <v>9059</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3502,10 +3512,10 @@
         <v>6050</v>
       </c>
       <c r="C7" s="1">
-        <v>6627</v>
+        <v>6340</v>
       </c>
       <c r="D7" s="1">
-        <v>7507</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3517,10 +3527,10 @@
         <v>13658</v>
       </c>
       <c r="C8" s="1">
-        <v>15013</v>
+        <v>14192</v>
       </c>
       <c r="D8" s="1">
-        <v>17477</v>
+        <v>16657</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3532,10 +3542,10 @@
         <v>8763</v>
       </c>
       <c r="C9" s="1">
-        <v>9675</v>
+        <v>9233</v>
       </c>
       <c r="D9" s="1">
-        <v>11055</v>
+        <v>10522</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3547,10 +3557,10 @@
         <v>10619</v>
       </c>
       <c r="C10" s="1">
-        <v>11718</v>
+        <v>10995</v>
       </c>
       <c r="D10" s="1">
-        <v>13272</v>
+        <v>12576</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3562,10 +3572,10 @@
         <v>1043</v>
       </c>
       <c r="C11" s="1">
-        <v>1150</v>
+        <v>1076</v>
       </c>
       <c r="D11" s="1">
-        <v>1253</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3577,10 +3587,10 @@
         <v>451</v>
       </c>
       <c r="C12" s="1">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="D12" s="1">
-        <v>524</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3592,10 +3602,10 @@
         <v>131</v>
       </c>
       <c r="C13" s="1">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D13" s="1">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3607,10 +3617,10 @@
         <v>21504</v>
       </c>
       <c r="C14" s="1">
-        <v>23829</v>
+        <v>22391</v>
       </c>
       <c r="D14" s="1">
-        <v>26289</v>
+        <v>24519</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3622,10 +3632,10 @@
         <v>3213</v>
       </c>
       <c r="C15" s="1">
-        <v>3521</v>
+        <v>3364</v>
       </c>
       <c r="D15" s="1">
-        <v>3921</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3637,10 +3647,10 @@
         <v>178</v>
       </c>
       <c r="C16" s="1">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D16" s="1">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3652,10 +3662,10 @@
         <v>467</v>
       </c>
       <c r="C17" s="1">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="D17" s="1">
-        <v>555</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3667,10 +3677,10 @@
         <v>211</v>
       </c>
       <c r="C18" s="1">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D18" s="1">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3682,10 +3692,10 @@
         <v>954</v>
       </c>
       <c r="C19" s="1">
-        <v>1056</v>
+        <v>1021</v>
       </c>
       <c r="D19" s="1">
-        <v>1142</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3697,10 +3707,10 @@
         <v>275</v>
       </c>
       <c r="C20" s="1">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="D20" s="1">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3712,10 +3722,10 @@
         <v>103</v>
       </c>
       <c r="C21" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3727,10 +3737,10 @@
         <v>146</v>
       </c>
       <c r="C22" s="1">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3742,10 +3752,10 @@
         <v>107</v>
       </c>
       <c r="C23" s="1">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D23" s="1">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3757,10 +3767,10 @@
         <v>9462</v>
       </c>
       <c r="C24" s="1">
-        <v>10499</v>
+        <v>9861</v>
       </c>
       <c r="D24" s="1">
-        <v>11879</v>
+        <v>11311</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3772,10 +3782,10 @@
         <v>403</v>
       </c>
       <c r="C25" s="1">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="D25" s="1">
-        <v>471</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3790,7 +3800,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3802,10 +3812,10 @@
         <v>3439</v>
       </c>
       <c r="C27" s="1">
-        <v>3809</v>
+        <v>3598</v>
       </c>
       <c r="D27" s="1">
-        <v>4479</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3817,10 +3827,10 @@
         <v>132</v>
       </c>
       <c r="C28" s="1">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D28" s="1">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3832,10 +3842,10 @@
         <v>288</v>
       </c>
       <c r="C29" s="1">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D29" s="1">
-        <v>339</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3847,10 +3857,10 @@
         <v>504</v>
       </c>
       <c r="C30" s="1">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="D30" s="1">
-        <v>612</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3862,10 +3872,10 @@
         <v>91</v>
       </c>
       <c r="C31" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D31" s="1">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3877,10 +3887,10 @@
         <v>469</v>
       </c>
       <c r="C32" s="1">
-        <v>536</v>
+        <v>498</v>
       </c>
       <c r="D32" s="1">
-        <v>552</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3892,10 +3902,10 @@
         <v>184864</v>
       </c>
       <c r="C33" s="1">
-        <v>207952</v>
+        <v>191911</v>
       </c>
       <c r="D33" s="1">
-        <v>231358</v>
+        <v>213960</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3907,10 +3917,10 @@
         <v>173</v>
       </c>
       <c r="C34" s="1">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D34" s="1">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3922,10 +3932,10 @@
         <v>162</v>
       </c>
       <c r="C35" s="1">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D35" s="1">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3937,10 +3947,10 @@
         <v>3073</v>
       </c>
       <c r="C36" s="1">
-        <v>3383</v>
+        <v>3221</v>
       </c>
       <c r="D36" s="1">
-        <v>3816</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3952,10 +3962,10 @@
         <v>650</v>
       </c>
       <c r="C37" s="1">
-        <v>748</v>
+        <v>665</v>
       </c>
       <c r="D37" s="1">
-        <v>777</v>
+        <v>730</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3967,10 +3977,10 @@
         <v>38577</v>
       </c>
       <c r="C38" s="1">
-        <v>42271</v>
+        <v>40383</v>
       </c>
       <c r="D38" s="1">
-        <v>48438</v>
+        <v>45735</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3982,10 +3992,10 @@
         <v>151</v>
       </c>
       <c r="C39" s="1">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D39" s="1">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3997,10 +4007,10 @@
         <v>4813</v>
       </c>
       <c r="C40" s="1">
-        <v>5278</v>
+        <v>4978</v>
       </c>
       <c r="D40" s="1">
-        <v>5960</v>
+        <v>5746</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4012,10 +4022,10 @@
         <v>84</v>
       </c>
       <c r="C41" s="1">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4027,10 +4037,10 @@
         <v>270</v>
       </c>
       <c r="C42" s="1">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="D42" s="1">
-        <v>356</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4042,10 +4052,10 @@
         <v>73</v>
       </c>
       <c r="C43" s="1">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D43" s="1">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4060,7 +4070,7 @@
         <v>50</v>
       </c>
       <c r="D44" s="1">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4072,10 +4082,10 @@
         <v>10223</v>
       </c>
       <c r="C45" s="1">
-        <v>11384</v>
+        <v>10672</v>
       </c>
       <c r="D45" s="1">
-        <v>12796</v>
+        <v>11975</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4090,7 +4100,7 @@
         <v>36</v>
       </c>
       <c r="D46" s="1">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4102,10 +4112,10 @@
         <v>1914</v>
       </c>
       <c r="C47" s="1">
-        <v>2099</v>
+        <v>1987</v>
       </c>
       <c r="D47" s="1">
-        <v>2404</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4117,10 +4127,10 @@
         <v>6723</v>
       </c>
       <c r="C48" s="1">
-        <v>7261</v>
+        <v>6931</v>
       </c>
       <c r="D48" s="1">
-        <v>8097</v>
+        <v>7641</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4132,10 +4142,10 @@
         <v>338</v>
       </c>
       <c r="C49" s="1">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="D49" s="1">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4147,10 +4157,10 @@
         <v>69</v>
       </c>
       <c r="C50" s="1">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D50" s="1">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4162,10 +4172,10 @@
         <v>555</v>
       </c>
       <c r="C51" s="1">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D51" s="1">
-        <v>663</v>
+        <v>601</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4177,10 +4187,10 @@
         <v>125362</v>
       </c>
       <c r="C52" s="1">
-        <v>142908</v>
+        <v>134294</v>
       </c>
       <c r="D52" s="1">
-        <v>163260</v>
+        <v>155965</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4192,10 +4202,10 @@
         <v>70</v>
       </c>
       <c r="C53" s="1">
+        <v>72</v>
+      </c>
+      <c r="D53" s="1">
         <v>73</v>
-      </c>
-      <c r="D53" s="1">
-        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4210,7 +4220,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4222,10 +4232,10 @@
         <v>440</v>
       </c>
       <c r="C55" s="1">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="D55" s="1">
-        <v>526</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4252,10 +4262,10 @@
         <v>778</v>
       </c>
       <c r="C57" s="1">
-        <v>835</v>
+        <v>796</v>
       </c>
       <c r="D57" s="1">
-        <v>908</v>
+        <v>833</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4267,10 +4277,10 @@
         <v>18852</v>
       </c>
       <c r="C58" s="1">
-        <v>20721</v>
+        <v>19751</v>
       </c>
       <c r="D58" s="1">
-        <v>24419</v>
+        <v>22499</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4282,10 +4292,10 @@
         <v>11414</v>
       </c>
       <c r="C59" s="1">
-        <v>12494</v>
+        <v>11943</v>
       </c>
       <c r="D59" s="1">
-        <v>13962</v>
+        <v>13557</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4297,10 +4307,10 @@
         <v>1776</v>
       </c>
       <c r="C60" s="1">
-        <v>1910</v>
+        <v>1832</v>
       </c>
       <c r="D60" s="1">
-        <v>2137</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4312,10 +4322,10 @@
         <v>228</v>
       </c>
       <c r="C61" s="1">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D61" s="1">
-        <v>275</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4330,7 +4340,7 @@
         <v>39</v>
       </c>
       <c r="D62" s="1">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4342,10 +4352,10 @@
         <v>1776</v>
       </c>
       <c r="C63" s="1">
-        <v>1910</v>
+        <v>1832</v>
       </c>
       <c r="D63" s="1">
-        <v>2137</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4360,7 +4370,7 @@
         <v>35</v>
       </c>
       <c r="D64" s="1">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4372,10 +4382,10 @@
         <v>34881</v>
       </c>
       <c r="C65" s="1">
-        <v>38987</v>
+        <v>36851</v>
       </c>
       <c r="D65" s="1">
-        <v>43758</v>
+        <v>41557</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4387,10 +4397,10 @@
         <v>244</v>
       </c>
       <c r="C66" s="1">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D66" s="1">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4420,7 +4430,7 @@
         <v>19</v>
       </c>
       <c r="D68" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4432,10 +4442,10 @@
         <v>85</v>
       </c>
       <c r="C69" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D69" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4447,10 +4457,10 @@
         <v>194</v>
       </c>
       <c r="C70" s="1">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D70" s="1">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4462,10 +4472,10 @@
         <v>132</v>
       </c>
       <c r="C71" s="1">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D71" s="1">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4477,10 +4487,10 @@
         <v>231</v>
       </c>
       <c r="C72" s="1">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D72" s="1">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4492,10 +4502,10 @@
         <v>27126</v>
       </c>
       <c r="C73" s="1">
-        <v>30343</v>
+        <v>28527</v>
       </c>
       <c r="D73" s="1">
-        <v>34165</v>
+        <v>32244</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4510,7 +4520,7 @@
         <v>53</v>
       </c>
       <c r="D74" s="1">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4525,7 +4535,7 @@
         <v>36</v>
       </c>
       <c r="D75" s="1">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4537,10 +4547,10 @@
         <v>150</v>
       </c>
       <c r="C76" s="1">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D76" s="1">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4552,10 +4562,10 @@
         <v>179</v>
       </c>
       <c r="C77" s="1">
+        <v>186</v>
+      </c>
+      <c r="D77" s="1">
         <v>199</v>
-      </c>
-      <c r="D77" s="1">
-        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4567,10 +4577,10 @@
         <v>342</v>
       </c>
       <c r="C78" s="1">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="D78" s="1">
-        <v>411</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4582,10 +4592,10 @@
         <v>24379</v>
       </c>
       <c r="C79" s="1">
-        <v>27004</v>
+        <v>25243</v>
       </c>
       <c r="D79" s="1">
-        <v>29800</v>
+        <v>27751</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4597,10 +4607,10 @@
         <v>233</v>
       </c>
       <c r="C80" s="1">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D80" s="1">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4612,10 +4622,10 @@
         <v>17159</v>
       </c>
       <c r="C81" s="1">
-        <v>18973</v>
+        <v>17654</v>
       </c>
       <c r="D81" s="1">
-        <v>21876</v>
+        <v>20817</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4627,10 +4637,10 @@
         <v>70</v>
       </c>
       <c r="C82" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D82" s="1">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4642,10 +4652,10 @@
         <v>164416</v>
       </c>
       <c r="C83" s="1">
-        <v>179581</v>
+        <v>169736</v>
       </c>
       <c r="D83" s="1">
-        <v>204899</v>
+        <v>185417</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4660,7 +4670,7 @@
         <v>18</v>
       </c>
       <c r="D84" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4675,7 +4685,7 @@
         <v>51</v>
       </c>
       <c r="D85" s="1">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4705,7 +4715,7 @@
         <v>35</v>
       </c>
       <c r="D87" s="1">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4717,10 +4727,10 @@
         <v>273</v>
       </c>
       <c r="C88" s="1">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D88" s="1">
-        <v>316</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -4735,7 +4745,7 @@
         <v>21</v>
       </c>
       <c r="D89" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4747,10 +4757,10 @@
         <v>247</v>
       </c>
       <c r="C90" s="1">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D90" s="1">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4765,7 +4775,7 @@
         <v>38</v>
       </c>
       <c r="D91" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -4777,10 +4787,10 @@
         <v>251</v>
       </c>
       <c r="C92" s="1">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D92" s="1">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4795,7 +4805,7 @@
         <v>38</v>
       </c>
       <c r="D93" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -4807,10 +4817,10 @@
         <v>69</v>
       </c>
       <c r="C94" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D94" s="1">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4822,10 +4832,10 @@
         <v>207775</v>
       </c>
       <c r="C95" s="1">
-        <v>229722</v>
+        <v>215020</v>
       </c>
       <c r="D95" s="1">
-        <v>258877</v>
+        <v>240792</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4837,10 +4847,10 @@
         <v>781</v>
       </c>
       <c r="C96" s="1">
-        <v>852</v>
+        <v>796</v>
       </c>
       <c r="D96" s="1">
-        <v>907</v>
+        <v>834</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -4852,10 +4862,10 @@
         <v>22445</v>
       </c>
       <c r="C97" s="1">
-        <v>25589</v>
+        <v>23964</v>
       </c>
       <c r="D97" s="1">
-        <v>28672</v>
+        <v>27605</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4867,10 +4877,10 @@
         <v>69</v>
       </c>
       <c r="C98" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D98" s="1">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4882,10 +4892,10 @@
         <v>612</v>
       </c>
       <c r="C99" s="1">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="D99" s="1">
-        <v>709</v>
+        <v>684</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -4897,10 +4907,10 @@
         <v>1336</v>
       </c>
       <c r="C100" s="1">
-        <v>1455</v>
+        <v>1390</v>
       </c>
       <c r="D100" s="1">
-        <v>1586</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4912,10 +4922,10 @@
         <v>320</v>
       </c>
       <c r="C101" s="1">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D101" s="1">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -4927,10 +4937,10 @@
         <v>80480</v>
       </c>
       <c r="C102" s="1">
-        <v>88262</v>
+        <v>85053</v>
       </c>
       <c r="D102" s="1">
-        <v>99513</v>
+        <v>90848</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4942,10 +4952,10 @@
         <v>296</v>
       </c>
       <c r="C103" s="1">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D103" s="1">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4957,10 +4967,10 @@
         <v>84</v>
       </c>
       <c r="C104" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D104" s="1">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4972,10 +4982,10 @@
         <v>1221</v>
       </c>
       <c r="C105" s="1">
-        <v>1292</v>
+        <v>1253</v>
       </c>
       <c r="D105" s="1">
-        <v>1478</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4987,10 +4997,10 @@
         <v>148</v>
       </c>
       <c r="C106" s="1">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D106" s="1">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5002,10 +5012,10 @@
         <v>200</v>
       </c>
       <c r="C107" s="1">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D107" s="1">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5020,7 +5030,7 @@
         <v>34</v>
       </c>
       <c r="D108" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5032,10 +5042,10 @@
         <v>1291</v>
       </c>
       <c r="C109" s="1">
-        <v>1385</v>
+        <v>1311</v>
       </c>
       <c r="D109" s="1">
-        <v>1578</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5047,10 +5057,10 @@
         <v>37</v>
       </c>
       <c r="C110" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D110" s="1">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5062,10 +5072,10 @@
         <v>1993</v>
       </c>
       <c r="C111" s="1">
-        <v>2198</v>
+        <v>2071</v>
       </c>
       <c r="D111" s="1">
-        <v>2544</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5077,10 +5087,10 @@
         <v>235</v>
       </c>
       <c r="C112" s="1">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D112" s="1">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5092,10 +5102,10 @@
         <v>20112</v>
       </c>
       <c r="C113" s="1">
-        <v>22303</v>
+        <v>20877</v>
       </c>
       <c r="D113" s="1">
-        <v>26379</v>
+        <v>24665</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5107,10 +5117,10 @@
         <v>423488</v>
       </c>
       <c r="C114" s="1">
-        <v>469630</v>
+        <v>446615</v>
       </c>
       <c r="D114" s="1">
-        <v>528751</v>
+        <v>484562</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5122,10 +5132,10 @@
         <v>68</v>
       </c>
       <c r="C115" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D115" s="1">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5137,10 +5147,10 @@
         <v>395</v>
       </c>
       <c r="C116" s="1">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="D116" s="1">
-        <v>466</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5152,10 +5162,10 @@
         <v>290</v>
       </c>
       <c r="C117" s="1">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D117" s="1">
-        <v>350</v>
+        <v>309</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5167,10 +5177,10 @@
         <v>5321</v>
       </c>
       <c r="C118" s="1">
-        <v>5884</v>
+        <v>5576</v>
       </c>
       <c r="D118" s="1">
-        <v>6478</v>
+        <v>6208</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5182,10 +5192,10 @@
         <v>343</v>
       </c>
       <c r="C119" s="1">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D119" s="1">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5197,10 +5207,10 @@
         <v>34881</v>
       </c>
       <c r="C120" s="1">
-        <v>38987</v>
+        <v>36851</v>
       </c>
       <c r="D120" s="1">
-        <v>43758</v>
+        <v>41557</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5215,7 +5225,7 @@
         <v>178</v>
       </c>
       <c r="D121" s="1">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5242,10 +5252,10 @@
         <v>512064</v>
       </c>
       <c r="C123" s="1">
-        <v>566158</v>
+        <v>535486</v>
       </c>
       <c r="D123" s="1">
-        <v>640398</v>
+        <v>592817</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5257,10 +5267,10 @@
         <v>36</v>
       </c>
       <c r="C124" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D124" s="1">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5272,10 +5282,10 @@
         <v>1206</v>
       </c>
       <c r="C125" s="1">
-        <v>1335</v>
+        <v>1225</v>
       </c>
       <c r="D125" s="1">
-        <v>1466</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5290,7 +5300,7 @@
         <v>22</v>
       </c>
       <c r="D126" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5302,10 +5312,10 @@
         <v>328</v>
       </c>
       <c r="C127" s="1">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="D127" s="1">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5317,10 +5327,10 @@
         <v>38046</v>
       </c>
       <c r="C128" s="1">
-        <v>42080</v>
+        <v>39786</v>
       </c>
       <c r="D128" s="1">
-        <v>48221</v>
+        <v>45159</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5332,10 +5342,10 @@
         <v>115</v>
       </c>
       <c r="C129" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D129" s="1">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5347,10 +5357,10 @@
         <v>64283</v>
       </c>
       <c r="C130" s="1">
-        <v>71402</v>
+        <v>67638</v>
       </c>
       <c r="D130" s="1">
-        <v>81396</v>
+        <v>77855</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5362,10 +5372,10 @@
         <v>128744</v>
       </c>
       <c r="C131" s="1">
-        <v>145152</v>
+        <v>135114</v>
       </c>
       <c r="D131" s="1">
-        <v>162610</v>
+        <v>149687</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5377,10 +5387,10 @@
         <v>84</v>
       </c>
       <c r="C132" s="1">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D132" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5392,10 +5402,10 @@
         <v>390180</v>
       </c>
       <c r="C133" s="1">
-        <v>399667</v>
+        <v>396323</v>
       </c>
       <c r="D133" s="1">
-        <v>453352</v>
+        <v>440870</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5407,10 +5417,10 @@
         <v>27</v>
       </c>
       <c r="C134" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D134" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5422,10 +5432,10 @@
         <v>83</v>
       </c>
       <c r="C135" s="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D135" s="1">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5452,10 +5462,10 @@
         <v>37</v>
       </c>
       <c r="C137" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D137" s="1">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5467,10 +5477,10 @@
         <v>163</v>
       </c>
       <c r="C138" s="1">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D138" s="1">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5482,10 +5492,10 @@
         <v>23</v>
       </c>
       <c r="C139" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D139" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5497,10 +5507,10 @@
         <v>69380</v>
       </c>
       <c r="C140" s="1">
-        <v>77664</v>
+        <v>71617</v>
       </c>
       <c r="D140" s="1">
-        <v>85261</v>
+        <v>81585</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5512,10 +5522,10 @@
         <v>512</v>
       </c>
       <c r="C141" s="1">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D141" s="1">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5527,10 +5537,10 @@
         <v>187112</v>
       </c>
       <c r="C142" s="1">
-        <v>207028</v>
+        <v>196468</v>
       </c>
       <c r="D142" s="1">
-        <v>238860</v>
+        <v>232275</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5545,7 +5555,7 @@
         <v>52</v>
       </c>
       <c r="D143" s="1">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5557,10 +5567,10 @@
         <v>485</v>
       </c>
       <c r="C144" s="1">
-        <v>551</v>
+        <v>513</v>
       </c>
       <c r="D144" s="1">
-        <v>566</v>
+        <v>540</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5572,10 +5582,10 @@
         <v>33827</v>
       </c>
       <c r="C145" s="1">
-        <v>37779</v>
+        <v>35842</v>
       </c>
       <c r="D145" s="1">
-        <v>44235</v>
+        <v>42936</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5587,10 +5597,10 @@
         <v>3009</v>
       </c>
       <c r="C146" s="1">
-        <v>3374</v>
+        <v>3156</v>
       </c>
       <c r="D146" s="1">
-        <v>3780</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5602,10 +5612,10 @@
         <v>66</v>
       </c>
       <c r="C147" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D147" s="1">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5617,10 +5627,10 @@
         <v>175</v>
       </c>
       <c r="C148" s="1">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D148" s="1">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5632,10 +5642,10 @@
         <v>37</v>
       </c>
       <c r="C149" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D149" s="1">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5647,10 +5657,10 @@
         <v>54766</v>
       </c>
       <c r="C150" s="1">
-        <v>63348</v>
+        <v>59079</v>
       </c>
       <c r="D150" s="1">
-        <v>70140</v>
+        <v>69240</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5662,10 +5672,10 @@
         <v>631</v>
       </c>
       <c r="C151" s="1">
-        <v>687</v>
+        <v>639</v>
       </c>
       <c r="D151" s="1">
-        <v>764</v>
+        <v>706</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5677,10 +5687,10 @@
         <v>230</v>
       </c>
       <c r="C152" s="1">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D152" s="1">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -5692,10 +5702,10 @@
         <v>53</v>
       </c>
       <c r="C153" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D153" s="1">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -5707,10 +5717,10 @@
         <v>171840</v>
       </c>
       <c r="C154" s="1">
-        <v>193252</v>
+        <v>181544</v>
       </c>
       <c r="D154" s="1">
-        <v>221687</v>
+        <v>200432</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -5722,10 +5732,10 @@
         <v>986</v>
       </c>
       <c r="C155" s="1">
-        <v>1095</v>
+        <v>1024</v>
       </c>
       <c r="D155" s="1">
-        <v>1211</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -5737,10 +5747,10 @@
         <v>17936</v>
       </c>
       <c r="C156" s="1">
-        <v>20029</v>
+        <v>18764</v>
       </c>
       <c r="D156" s="1">
-        <v>22291</v>
+        <v>21223</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -5752,10 +5762,10 @@
         <v>3888</v>
       </c>
       <c r="C157" s="1">
-        <v>4211</v>
+        <v>4034</v>
       </c>
       <c r="D157" s="1">
-        <v>4607</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -5767,10 +5777,10 @@
         <v>580</v>
       </c>
       <c r="C158" s="1">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="D158" s="1">
-        <v>687</v>
+        <v>651</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -5782,10 +5792,10 @@
         <v>258</v>
       </c>
       <c r="C159" s="1">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D159" s="1">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
